--- a/test/test_file/case/userCase.xlsx
+++ b/test/test_file/case/userCase.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="payAddress" sheetId="1" r:id="rId1"/>
     <sheet name="userInfo" sheetId="2" r:id="rId2"/>
     <sheet name="redbag" sheetId="3" r:id="rId3"/>
-    <sheet name="accountSetting" sheetId="4" r:id="rId4"/>
+    <sheet name="Balance" sheetId="4" r:id="rId4"/>
     <sheet name="updatePassword" sheetId="5" r:id="rId5"/>
     <sheet name="addAddress" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="137">
   <si>
     <t>case_name</t>
   </si>
@@ -120,223 +120,145 @@
     <t>random</t>
   </si>
   <si>
+    <t>查询所有余额</t>
+  </si>
+  <si>
     <t>token</t>
   </si>
   <si>
+    <t>old_password</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>password_confirm</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>updatePassword_OldPwdError</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>shein1234</t>
+  </si>
+  <si>
+    <t>400504</t>
+  </si>
+  <si>
+    <t>PasswordError</t>
+  </si>
+  <si>
+    <t>updatePassword_OldPwdNull</t>
+  </si>
+  <si>
+    <t>100102</t>
+  </si>
+  <si>
+    <t>oldPassword with  call: Argument is a blank string: oldPassword</t>
+  </si>
+  <si>
+    <t>updatePassword_PwdNull</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>password with  call: Argument is a blank string: password</t>
+  </si>
+  <si>
+    <t>updatePassword_PwdError</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>400506</t>
+  </si>
+  <si>
+    <t>PasswordLengthError</t>
+  </si>
+  <si>
+    <t>updatePassword_PwdConfirmError</t>
+  </si>
+  <si>
+    <t>shein12</t>
+  </si>
+  <si>
+    <t>400502</t>
+  </si>
+  <si>
+    <t>please your input are the same</t>
+  </si>
+  <si>
+    <t>updatePassword_PwdConfirmNull</t>
+  </si>
+  <si>
+    <t>passwordConfirm with  call: Argument is a blank string: passwordConfirm</t>
+  </si>
+  <si>
+    <t>updatePassword_TokenError</t>
+  </si>
+  <si>
+    <t>sfdfbdf243vbnfdgr</t>
+  </si>
+  <si>
+    <t>100105</t>
+  </si>
+  <si>
+    <t>Forbidden</t>
+  </si>
+  <si>
+    <t>updatePassword_TokenVisitor</t>
+  </si>
+  <si>
+    <t>100103</t>
+  </si>
+  <si>
+    <t>Unauthorized</t>
+  </si>
+  <si>
+    <t>updatePassword_TokenNull</t>
+  </si>
+  <si>
+    <t>updatePassword</t>
+  </si>
+  <si>
     <t>sex</t>
   </si>
   <si>
-    <t>telephone</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>birthday</t>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>standby_tel</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>postcode</t>
   </si>
   <si>
     <t>country_id</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>accountSetting</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>testNickName01</t>
-  </si>
-  <si>
-    <t>20170104</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>accountSetting_SexError</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>100102</t>
-  </si>
-  <si>
-    <t>sex with aa call: Argument is not numeric: sex</t>
-  </si>
-  <si>
-    <t>accountSetting_SexNull</t>
-  </si>
-  <si>
-    <t>sex with  call: Argument is not numeric: sex</t>
-  </si>
-  <si>
-    <t>accountSetting_TelNull</t>
-  </si>
-  <si>
-    <t>accountSetting_NickNameNull</t>
-  </si>
-  <si>
-    <t>accountSetting_BirthdayError</t>
-  </si>
-  <si>
-    <t>asdfghjk</t>
-  </si>
-  <si>
-    <t>birthday with asdfghjk call: Argument is not numeric: birthday</t>
-  </si>
-  <si>
-    <t>accountSetting_BirthdayNull</t>
-  </si>
-  <si>
-    <t>birthday with  call: Argument is not numeric: birthday</t>
-  </si>
-  <si>
-    <t>accountSetting_CountryIdError</t>
-  </si>
-  <si>
-    <t>country_id with aa call: Argument is not numeric: country_id</t>
-  </si>
-  <si>
-    <t>accountSetting_CountryIdNull</t>
-  </si>
-  <si>
-    <t>country_id with  call: Argument is not numeric: country_id</t>
-  </si>
-  <si>
-    <t>accountSetting_TokenError</t>
-  </si>
-  <si>
-    <t>asdfg12435vbgfhd</t>
-  </si>
-  <si>
-    <t>100105</t>
-  </si>
-  <si>
-    <t>Forbidden</t>
-  </si>
-  <si>
-    <t>accountSetting_TokenNull</t>
-  </si>
-  <si>
-    <t>old_password</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>password_confirm</t>
-  </si>
-  <si>
-    <t>updatePassword_OldPwdError</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>shein1234</t>
-  </si>
-  <si>
-    <t>400504</t>
-  </si>
-  <si>
-    <t>PasswordError</t>
-  </si>
-  <si>
-    <t>updatePassword_OldPwdNull</t>
-  </si>
-  <si>
-    <t>oldPassword with  call: Argument is a blank string: oldPassword</t>
-  </si>
-  <si>
-    <t>updatePassword_PwdNull</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>password with  call: Argument is a blank string: password</t>
-  </si>
-  <si>
-    <t>updatePassword_PwdError</t>
-  </si>
-  <si>
-    <t>she</t>
-  </si>
-  <si>
-    <t>400506</t>
-  </si>
-  <si>
-    <t>PasswordLengthError</t>
-  </si>
-  <si>
-    <t>updatePassword_PwdConfirmError</t>
-  </si>
-  <si>
-    <t>shein12</t>
-  </si>
-  <si>
-    <t>400502</t>
-  </si>
-  <si>
-    <t>please your input are the same</t>
-  </si>
-  <si>
-    <t>updatePassword_PwdConfirmNull</t>
-  </si>
-  <si>
-    <t>passwordConfirm with  call: Argument is a blank string: passwordConfirm</t>
-  </si>
-  <si>
-    <t>updatePassword_TokenError</t>
-  </si>
-  <si>
-    <t>sfdfbdf243vbnfdgr</t>
-  </si>
-  <si>
-    <t>updatePassword_TokenVisitor</t>
-  </si>
-  <si>
-    <t>100103</t>
-  </si>
-  <si>
-    <t>Unauthorized</t>
-  </si>
-  <si>
-    <t>updatePassword_TokenNull</t>
-  </si>
-  <si>
-    <t>updatePassword</t>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>tel</t>
-  </si>
-  <si>
-    <t>standby_tel</t>
-  </si>
-  <si>
-    <t>address1</t>
-  </si>
-  <si>
-    <t>address2</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>postcode</t>
   </si>
   <si>
     <t>tax_number</t>
@@ -515,9 +437,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -558,7 +480,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,6 +503,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,15 +525,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,22 +572,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,7 +580,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,14 +595,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,7 +624,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +708,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,49 +756,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,109 +798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,17 +846,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,8 +858,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,13 +879,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,33 +935,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,10 +951,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,133 +963,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1676,7 +1598,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -1767,421 +1689,43 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2216,19 +1760,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -2239,7 +1783,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2248,27 +1792,27 @@
         <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -2277,24 +1821,24 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -2303,24 +1847,24 @@
         <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -2329,27 +1873,27 @@
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -2358,27 +1902,27 @@
         <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -2387,53 +1931,53 @@
         <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -2442,53 +1986,53 @@
         <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -2497,13 +2041,13 @@
         <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -2547,55 +2091,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>7</v>
@@ -2606,7 +2150,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2615,46 +2159,46 @@
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>15</v>
@@ -2671,7 +2215,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -2681,43 +2225,43 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>15</v>
@@ -2726,15 +2270,15 @@
         <v>29</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="U3" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -2743,44 +2287,44 @@
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>15</v>
@@ -2789,15 +2333,15 @@
         <v>29</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="U4" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -2806,44 +2350,44 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>15</v>
@@ -2852,15 +2396,15 @@
         <v>29</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="U5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -2869,44 +2413,44 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>15</v>
@@ -2915,15 +2459,15 @@
         <v>29</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="U6" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -2932,46 +2476,46 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="H7" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>15</v>
@@ -2980,15 +2524,15 @@
         <v>29</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="U7" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2997,44 +2541,44 @@
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>15</v>
@@ -3043,15 +2587,15 @@
         <v>29</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="U8" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -3060,46 +2604,46 @@
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>15</v>
@@ -3108,15 +2652,15 @@
         <v>29</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="U9" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -3125,44 +2669,44 @@
         <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>15</v>
@@ -3171,15 +2715,15 @@
         <v>29</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="U10" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -3188,46 +2732,46 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>15</v>
@@ -3236,15 +2780,15 @@
         <v>29</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="U11" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -3253,44 +2797,44 @@
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>15</v>
@@ -3299,15 +2843,15 @@
         <v>29</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="U12" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -3316,44 +2860,44 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>15</v>
@@ -3362,15 +2906,15 @@
         <v>29</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="U13" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -3379,46 +2923,46 @@
         <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>15</v>
@@ -3427,15 +2971,15 @@
         <v>29</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="U14" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -3444,44 +2988,44 @@
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>15</v>
@@ -3490,63 +3034,63 @@
         <v>29</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="U15" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>15</v>
@@ -3555,15 +3099,15 @@
         <v>29</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -3572,46 +3116,46 @@
         <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>15</v>
@@ -3620,60 +3164,60 @@
         <v>29</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="U17" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>15</v>
@@ -3682,10 +3226,10 @@
         <v>29</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="4:17">
